--- a/data/trans_bre/P34_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,07</t>
+          <t>-9,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,36</t>
+          <t>-9,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>-7,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-50,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-43,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-40,77%</t>
+          <t>-44,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-30,92%</t>
+          <t>-39,05%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-35,45%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-24,76%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -4,17</t>
+          <t>-20,28; -1,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,46; -4,78</t>
+          <t>-18,18; -2,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,19; -2,59</t>
+          <t>-13,8; -1,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -3,38</t>
+          <t>-12,71; 5,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-68,9; -22,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,8; -21,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,01; -14,45</t>
+          <t>-70,02; -6,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -11,38</t>
+          <t>-60,44; -13,9</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-54,75; -10,74</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-55,28; 48,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,26</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,14</t>
+          <t>-8,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-35,87%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,96%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,77%</t>
+          <t>-28,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,55%</t>
+          <t>-28,93%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-23,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-34,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,16; -6,79</t>
+          <t>-15,14; -1,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -4,13</t>
+          <t>-13,73; -2,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,9; -0,63</t>
+          <t>-12,42; -1,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 0,25</t>
+          <t>-17,71; -1,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,01; -21,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,45; -15,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,57; -2,16</t>
+          <t>-45,16; -5,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 0,89</t>
+          <t>-44,54; -9,82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-38,88; -4,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-54,89; -6,57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>-6,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>-10,56%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-6,86%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 5,16</t>
+          <t>-9,72; 5,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 2,47</t>
+          <t>-7,45; 3,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 5,15</t>
+          <t>-4,22; 5,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 5,83</t>
+          <t>-8,99; 4,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 40,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,84; 16,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 39,45</t>
+          <t>-40,55; 41,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 46,11</t>
+          <t>-35,13; 25,69</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 39,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-45,55; 47,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,71</t>
+          <t>-13,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-7,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-31,32%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>-41,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,45%</t>
+          <t>-36,01%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-32,2%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -5,13</t>
+          <t>-20,02; -7,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -4,74</t>
+          <t>-16,36; -3,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -1,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -2,32</t>
+          <t>-15,2; -1,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,37; -21,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,11; -20,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,87; -8,2</t>
+          <t>-53,63; -25,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,56; -8,94</t>
+          <t>-53,1; -13,65</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-51,61; -6,86</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-9,3</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-7,3</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-4,84</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-6,28</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-33,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-29,56%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-21,28%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-29,19%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; -5,76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-10,68; -4,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-8,57; -1,96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; -2,45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-43,41; -22,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-39,92; -17,56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-33,24; -8,97</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-41,46; -12,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P34_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,93</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,74</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,32</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-44,69%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-39,05%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-35,45%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-24,76%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-10.00743431457561</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-10.70011119140523</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-8.553203861393555</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.560057944382515</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.451731233542193</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4189838193912503</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.3824306463941462</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.2607932971148653</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-20,28; -1,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,18; -2,95</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,8; -1,87</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-12,71; 5,38</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-70,02; -6,95</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-60,44; -13,9</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-54,75; -10,74</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-55,28; 48,66</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.83959094005125</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.56526671594218</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.03922331143281</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.08028690797546</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.6924393462486185</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6243536640032205</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.5670449701820739</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.5631201856526085</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.583873133438094</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-3.664020052137136</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-2.683788547860394</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.088103871750819</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>-0.06978187657973217</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.1733704952695996</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.140383345746806</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.4634711980938074</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,35</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,59</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-8,99</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-28,5%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-28,93%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-23,63%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-34,91%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,14; -1,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; -2,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,42; -1,26</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-17,71; -1,78</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-45,16; -5,18</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-44,54; -9,82</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-38,88; -4,66</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-54,89; -6,57</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-8.616097452908392</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-7.971763330340275</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-6.457324378078042</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-9.201654944844259</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.2910026251251058</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2844680595337764</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2311156855429201</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.355493715926826</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-6,36%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-10,56%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-6,86%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.72041111839517</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.55975976632129</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-12.01771044861622</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-18.04326483976523</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.4616680069199194</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4365277047032985</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3817592110505455</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5545536840902993</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; 5,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 3,67</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 5,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,99; 4,92</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-40,55; 41,04</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-35,13; 25,69</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-22,72; 39,48</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-45,55; 47,8</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-1.498296001237056</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-2.161962169376328</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.880639767261221</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-2.152382372865896</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>-0.05620616175527393</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.08221672267706859</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.0343117360061968</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.07802233623183244</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-13,47</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-9,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-7,88</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-41,23%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-36,01%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-32,2%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.09385998285522112</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.84726327846933</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7746334265174154</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.6654576838466153</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.005480046914505981</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1040543250894889</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.04923758882271037</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.04652134817847717</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-20,02; -7,65</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-16,36; -3,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-15,2; -1,43</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-53,63; -25,31</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-53,1; -13,65</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-51,61; -6,86</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.95529237995858</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.392500905684924</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.193136305832731</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.666418980557983</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.3580479020341178</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3454346443903765</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.226727852964494</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4435884575907973</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.83390819819458</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.659878099934271</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.35194216714352</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.316239716495516</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.5359588819592525</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2605700130352055</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.4029679717487007</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.5146966264875976</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-9,3</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,3</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,84</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,28</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-33,62%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-29,56%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-21,28%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-29,19%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,14; -5,76</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,68; -4,17</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,57; -1,96</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; -2,45</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-43,41; -22,55</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-39,92; -17,56</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-33,24; -8,97</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-41,46; -12,78</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-5.890530942942873</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-6.712410303032504</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.006326500055447</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-5.508479203890629</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.247157564187808</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2774731677859021</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2183060563910731</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.2722896666651478</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-10.81953385175939</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.14844241918158</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-8.801458697759172</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-10.77890840101866</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.4032772705910104</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3894626044831401</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3385495237829525</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.4427730985634115</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.742849466457811</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-3.163405211329966</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-2.208648084719439</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-1.389238670756313</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>-0.08040109534975969</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.1434126822317052</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.09669599972902311</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.06985252097653558</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
